--- a/biology/Zoologie/Chactopsis/Chactopsis.xlsx
+++ b/biology/Zoologie/Chactopsis/Chactopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chactopsis est un genre de scorpions de la famille des Chactidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Brésil, au Venezuela et au Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Brésil, au Venezuela et au Pérou.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (25/05/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (25/05/2020) :
 Chactopsis amazonica Lourenço &amp; Francke, 1986
 Chactopsis barajuri González-Sponga, 1982
 Chactopsis buhrnheimi Lourenço, 2003
@@ -580,9 +596,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est placé dans les Chactidae par Lourenço en 2003[3] tandis que Soleglad et Sissom en 2001[4] le plaçait dans les Euscorpiidae. Il a été révisé par Ochoa, Rojas-Runjaic, Pinto-da-Rocha et Prendini en 2013[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est placé dans les Chactidae par Lourenço en 2003 tandis que Soleglad et Sissom en 2001 le plaçait dans les Euscorpiidae. Il a été révisé par Ochoa, Rojas-Runjaic, Pinto-da-Rocha et Prendini en 2013.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kraepelin, 1912 : Neue Beiträge zur Systematik der Gliederspinnen. II. Chactinae (Scorpiones). Mitteilungen aus dem Naturhistorischen Museum (2. Beiheft zum Jahrbuch der Hamburgischen Wissenschaftlichen Anstalten), vol. 29, no 2, p. 43-88 (texte intégral).</t>
         </is>
